--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Cycles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>MS1_Flow</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>delay from start cycle (m)</t>
+  </si>
+  <si>
+    <t>RRU_PHASE</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,13 +547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
@@ -1125,7 +1128,9 @@
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D29" s="1">
         <v>1500</v>
       </c>
@@ -1467,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
